--- a/12)_RPA/IP_0006/ExcelTemp/outPut/2022-10-27_환율 정보 수집.xlsx
+++ b/12)_RPA/IP_0006/ExcelTemp/outPut/2022-10-27_환율 정보 수집.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\TIL2022\12)_RPA\IP_0006\ExcelTemp\outPut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\바탕 화면\study\12)_RPA\IP_0006\ExcelTemp\outPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2484106-20EF-40F5-947A-FFEFCDDD7FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B2536E-75E5-4A9E-B40C-4627E3CDAA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="원엔" sheetId="1" r:id="rId1"/>
@@ -408,6 +408,9 @@
       <c r="A2" s="1">
         <v>44861</v>
       </c>
+      <c r="B2">
+        <v>1420.74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
